--- a/SRU/Регистры.xlsx
+++ b/SRU/Регистры.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruslan\weintek\SRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596CE5A-576A-4D15-804D-987E2031B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B57B52-9A33-4B11-969F-8F85345FE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СРУ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>A</t>
   </si>
@@ -97,12 +97,6 @@
     <t>СТАТУС АВТО</t>
   </si>
   <si>
-    <t>ВКЛ</t>
-  </si>
-  <si>
-    <t>ВЫКЛ</t>
-  </si>
-  <si>
     <t>АВТО ВКЛ</t>
   </si>
   <si>
@@ -119,6 +113,90 @@
   </si>
   <si>
     <t>СКОРОСТЬ</t>
+  </si>
+  <si>
+    <t>модель(4)</t>
+  </si>
+  <si>
+    <t>версияпрошвки</t>
+  </si>
+  <si>
+    <t>ВКЛ мотор</t>
+  </si>
+  <si>
+    <t>ВЫКЛ мотор</t>
+  </si>
+  <si>
+    <t>Уставка по д иаметру</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Рассогласование</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Fmax</t>
+  </si>
+  <si>
+    <t>Верхняя частота</t>
+  </si>
+  <si>
+    <t>Fmin</t>
+  </si>
+  <si>
+    <t>Нижняя частота</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Скорость линии</t>
+  </si>
+  <si>
+    <t>Dk</t>
+  </si>
+  <si>
+    <t>Диаметр колеса</t>
+  </si>
+  <si>
+    <t>Nоб</t>
+  </si>
+  <si>
+    <t>Количество импульсов на оборот</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Размер зуба</t>
+  </si>
+  <si>
+    <t>Nz</t>
+  </si>
+  <si>
+    <t>Количество зубов</t>
+  </si>
+  <si>
+    <t>Err</t>
+  </si>
+  <si>
+    <t>Обрыв энкодера</t>
   </si>
 </sst>
 </file>
@@ -358,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,15 +457,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -668,16 +749,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="A19:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -739,17 +820,21 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -786,8 +871,8 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="19" t="s">
-        <v>28</v>
+      <c r="R3" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -810,7 +895,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -832,7 +917,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="19"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -854,7 +939,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="19"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -876,7 +961,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="19"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -898,7 +983,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="19"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -920,7 +1005,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="19"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -942,7 +1027,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="19"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -964,40 +1049,40 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="19"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1020,7 +1105,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="18"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1042,7 +1127,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="18"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1064,7 +1149,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="18"/>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1086,12 +1171,150 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="18"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="R3:R11"/>
     <mergeCell ref="R12:R16"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1102,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B19E2-484B-4CB9-91E7-83B59B0FF025}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SRU/Регистры.xlsx
+++ b/SRU/Регистры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruslan\weintek\SRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B57B52-9A33-4B11-969F-8F85345FE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB808FD-BA2C-498B-9882-7F60F9BFE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,846 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Redwill1</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{8EAA9E22-22D5-4928-AC31-0DA5D5D4D4AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Статус работы мотора:
+0 - выключен
+1 - включен</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{63937DE9-C062-40BE-AB07-030868D71FE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Статус автоматического регулятора:
+0 - выключен
+1 - включен</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{47D43BB9-24CD-447B-BEC2-47932CE8E7A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Статус обрыва энкодера:
+0 - всё в порядке
+1 - обрыв</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E4D68468-36B9-46FF-8C07-EDD174D492DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Текущий диаметр изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2934CD95-6F90-421D-9D11-A2FEF9C9E731}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Уставка диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{D85C0962-8089-463F-AD76-3A85B6ECE53F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Скорость линии
+тип - float
+размерность - м/мин</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{14E8EE1C-16E5-4C25-8F84-50E6A38E7C46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Частота в ращения шнека
+тип - float
+размерность - об/мин</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38B3F926-2C15-4244-81DD-0231807F1700}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Пропорциональный коэффициент регулятора
+тип - float
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C7F9F81D-B710-4437-BE30-B9E99BAD9D9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Постоянная времени  регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{10B45C1E-3FDF-4969-BAD5-BBF419D3023E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Время цикла регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{ADCF8CB1-6F95-4DB4-B149-17319AB2B2C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сигнал рассогласования регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1DFD437D-2EBC-4580-9EDB-EC5DFF5C747F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Максимальная частота вращения шнека
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CEB67269-3E1F-4C16-A574-6AB22D948B67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальная частота вращения шнека
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4376E02C-136A-45CE-B146-E67BCCC14EB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Диаметр колеса
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{255F9173-A1B0-43B7-B26F-2F6CADC5D396}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Размер зуба 
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{C96A3772-CD8A-4137-9987-ADA0067E4124}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Количество зубов
+тип - unsigned short</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{2B34D7DF-384E-4610-87B7-D893CC97BC72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Количество импульсов на оборот
+тип - unsigned short</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{EB8CDBEC-0510-4D3D-A44C-3C81FC25B72C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда включить мотор:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{A3086681-9CC5-4DA3-8ED6-83FF5B7937A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда выключить мотор:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{6CBA55FE-0F63-435C-941F-C837D652231B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда включить автоматическое регулирование:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{29580E6F-10A1-4B5D-82CA-7BB5A69DB4F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда включить автоматическое регулирование:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{F7C37494-2D61-4CFF-9A1A-2F832FE80A04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать уставку диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{E8703ADF-DF11-45BA-AE15-E930E1097F5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать пропорциональный коэффициент регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{7BB6505C-7FC1-43EE-8AAF-A0B5C5B77A42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать постоянную времени регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{5FC4C8BB-5419-48A6-AD2F-4C8B6E0F14CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать время цикла регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{7CAFE4D6-D947-424D-9BF2-F9A220F60A8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать постоянную времени регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{B473D495-998D-434A-9328-E0B250FA7F2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать время цикла регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{D78931A6-F1E7-4847-BCB1-B91C2763C812}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать диаметр колеса
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{95F6DCC5-F3F8-487D-B7FC-489294A72CE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать размер зуба 
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{6EF99CCB-85F8-4756-A065-8C05EE3BD060}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать количество зубов
+тип - unsigned short</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{E8C68197-6161-4FD7-95C9-601117C78B9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать количество импульсов на оборот
+тип - unsigned short</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>A</t>
   </si>
@@ -85,54 +923,12 @@
     <t>0x18</t>
   </si>
   <si>
-    <t>D HIGH</t>
-  </si>
-  <si>
-    <t>D LOW</t>
-  </si>
-  <si>
-    <t>Статус ВКЛ</t>
-  </si>
-  <si>
-    <t>СТАТУС АВТО</t>
-  </si>
-  <si>
-    <t>АВТО ВКЛ</t>
-  </si>
-  <si>
-    <t>АВТО ВЫКЛ</t>
-  </si>
-  <si>
-    <t>СКОРОСТь</t>
-  </si>
-  <si>
     <t>ЧТЕНИЕ</t>
   </si>
   <si>
     <t>ЗАПИСЬ</t>
   </si>
   <si>
-    <t>СКОРОСТЬ</t>
-  </si>
-  <si>
-    <t>модель(4)</t>
-  </si>
-  <si>
-    <t>версияпрошвки</t>
-  </si>
-  <si>
-    <t>ВКЛ мотор</t>
-  </si>
-  <si>
-    <t>ВЫКЛ мотор</t>
-  </si>
-  <si>
-    <t>Уставка по д иаметру</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>Kp</t>
   </si>
   <si>
@@ -142,68 +938,95 @@
     <t>Tc</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Рассогласование</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Fmax</t>
   </si>
   <si>
-    <t>Верхняя частота</t>
-  </si>
-  <si>
     <t>Fmin</t>
   </si>
   <si>
-    <t>Нижняя частота</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Скорость линии</t>
-  </si>
-  <si>
     <t>Dk</t>
   </si>
   <si>
-    <t>Диаметр колеса</t>
-  </si>
-  <si>
-    <t>Nоб</t>
-  </si>
-  <si>
-    <t>Количество импульсов на оборот</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
-    <t>Размер зуба</t>
-  </si>
-  <si>
-    <t>Nz</t>
-  </si>
-  <si>
-    <t>Количество зубов</t>
-  </si>
-  <si>
-    <t>Err</t>
-  </si>
-  <si>
-    <t>Обрыв энкодера</t>
+    <t xml:space="preserve"> задать D уставка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Tc</t>
+  </si>
+  <si>
+    <t>e (рассогласование)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Dk (Диаметр колеса)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Z (Размер зуба)</t>
+  </si>
+  <si>
+    <t>Dcur</t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Vline</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>EncoderErr</t>
+  </si>
+  <si>
+    <t>OnMotor</t>
+  </si>
+  <si>
+    <t>OffMotor</t>
+  </si>
+  <si>
+    <t>OnAuto</t>
+  </si>
+  <si>
+    <t>OffAuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Nz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Ni </t>
+  </si>
+  <si>
+    <t>Ver soft</t>
+  </si>
+  <si>
+    <t>model (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Fmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Fmin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +1042,43 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -241,7 +1101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -265,21 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -432,42 +1277,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,576 +1740,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="A19:G31"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
+      <c r="B1" s="7">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="7">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="7">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="7">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="7">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="7">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="7">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="7">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="22"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="23">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R11"/>
     <mergeCell ref="R12:R16"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SRU/Регистры.xlsx
+++ b/SRU/Регистры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruslan\weintek\SRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB808FD-BA2C-498B-9882-7F60F9BFE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA9326-B00D-4354-B744-417DC37BCA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E4D68468-36B9-46FF-8C07-EDD174D492DF}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1585CA4E-9AE6-42F3-9EA3-9FD445E363E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Уставка диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{3E7AC71E-B950-4CAF-A8F5-5CE565CE71B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Уставка диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{2934CD95-6F90-421D-9D11-A2FEF9C9E731}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Уставка диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{E4D68468-36B9-46FF-8C07-EDD174D492DF}">
       <text>
         <r>
           <rPr>
@@ -135,33 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2934CD95-6F90-421D-9D11-A2FEF9C9E731}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Уставка диаметра изделия
-тип - float
-размерность - мм</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{D85C0962-8089-463F-AD76-3A85B6ECE53F}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{D85C0962-8089-463F-AD76-3A85B6ECE53F}">
       <text>
         <r>
           <rPr>
@@ -187,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{14E8EE1C-16E5-4C25-8F84-50E6A38E7C46}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{14E8EE1C-16E5-4C25-8F84-50E6A38E7C46}">
       <text>
         <r>
           <rPr>
@@ -213,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38B3F926-2C15-4244-81DD-0231807F1700}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{38B3F926-2C15-4244-81DD-0231807F1700}">
       <text>
         <r>
           <rPr>
@@ -239,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C7F9F81D-B710-4437-BE30-B9E99BAD9D9A}">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{C7F9F81D-B710-4437-BE30-B9E99BAD9D9A}">
       <text>
         <r>
           <rPr>
@@ -264,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{10B45C1E-3FDF-4969-BAD5-BBF419D3023E}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{10B45C1E-3FDF-4969-BAD5-BBF419D3023E}">
       <text>
         <r>
           <rPr>
@@ -289,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{ADCF8CB1-6F95-4DB4-B149-17319AB2B2C7}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{ADCF8CB1-6F95-4DB4-B149-17319AB2B2C7}">
       <text>
         <r>
           <rPr>
@@ -314,7 +366,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1DFD437D-2EBC-4580-9EDB-EC5DFF5C747F}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{CEB67269-3E1F-4C16-A574-6AB22D948B67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальная частота вращения шнека
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{1DFD437D-2EBC-4580-9EDB-EC5DFF5C747F}">
       <text>
         <r>
           <rPr>
@@ -337,33 +416,6 @@
           </rPr>
           <t xml:space="preserve">
 Максимальная частота вращения шнека
-тип - float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CEB67269-3E1F-4C16-A574-6AB22D948B67}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Минимальная частота вращения шнека
 тип - float</t>
         </r>
       </text>
@@ -614,7 +666,63 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{E8703ADF-DF11-45BA-AE15-E930E1097F5A}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{F3B57F03-E439-4DBB-9477-E1B17AAC0F23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать уставку диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{01AFCC41-0A84-4EC2-ABAE-093D131E80C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать уставку диаметра изделия
+тип - float
+размерность - мм</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{E8703ADF-DF11-45BA-AE15-E930E1097F5A}">
       <text>
         <r>
           <rPr>
@@ -641,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{7BB6505C-7FC1-43EE-8AAF-A0B5C5B77A42}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{7BB6505C-7FC1-43EE-8AAF-A0B5C5B77A42}">
       <text>
         <r>
           <rPr>
@@ -668,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{5FC4C8BB-5419-48A6-AD2F-4C8B6E0F14CD}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{5FC4C8BB-5419-48A6-AD2F-4C8B6E0F14CD}">
       <text>
         <r>
           <rPr>
@@ -695,7 +803,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{7CAFE4D6-D947-424D-9BF2-F9A220F60A8E}">
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{B473D495-998D-434A-9328-E0B250FA7F2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Задать время цикла регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{7CAFE4D6-D947-424D-9BF2-F9A220F60A8E}">
       <text>
         <r>
           <rPr>
@@ -718,33 +853,6 @@
           </rPr>
           <t xml:space="preserve">
 Задать постоянную времени регулятора
-тип - float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{B473D495-998D-434A-9328-E0B250FA7F2B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Задать время цикла регулятора
 тип - float</t>
         </r>
       </text>
@@ -864,7 +972,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>A</t>
   </si>
@@ -950,9 +1058,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t xml:space="preserve"> задать D уставка</t>
-  </si>
-  <si>
     <t xml:space="preserve"> задать Kp</t>
   </si>
   <si>
@@ -1020,6 +1125,21 @@
   </si>
   <si>
     <t xml:space="preserve"> задать Fmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Dmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Dmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задать Dnom</t>
+  </si>
+  <si>
+    <t>Dmin</t>
+  </si>
+  <si>
+    <t>Dmax</t>
   </si>
 </sst>
 </file>
@@ -1365,6 +1485,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,91 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1744,7 +1864,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,498 +1875,510 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="7">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="4">
         <v>7</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="4">
         <v>8</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="4">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10" t="s">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="32"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="C14" s="28"/>
+      <c r="D14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="32"/>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="B15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="32"/>
+    </row>
+    <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="4"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="33"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="33"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="33"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="33"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+  <mergeCells count="27">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="R3:R11"/>
     <mergeCell ref="R12:R16"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/SRU/Регистры.xlsx
+++ b/SRU/Регистры.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruslan\weintek\SRU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redwill1\YandexDisk\REDWILL\Ruslan\weintek\SRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA9326-B00D-4354-B744-417DC37BCA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCF6F2-5C81-4845-BAF2-49D3743AE238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,81 +31,111 @@
     <author>Redwill1</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{8EAA9E22-22D5-4928-AC31-0DA5D5D4D4AF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Статус работы мотора:
-0 - выключен
-1 - включен</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{63937DE9-C062-40BE-AB07-030868D71FE4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Статус автоматического регулятора:
-0 - выключен
-1 - включен</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{47D43BB9-24CD-447B-BEC2-47932CE8E7A1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Статус обрыва энкодера:
-0 - всё в порядке
-1 - обрыв</t>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{A34368C2-8DE2-4232-A3C1-EC793FACE443}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда включить мотор:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{5A43034B-3B7A-4536-8B24-501EECD702F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда выключить мотор:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{2258B3BE-69A2-4646-AD2E-B1C051751D7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда включить автоматическое регулирование:
+запись 1 в регистр.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A11CF3D6-628C-4619-B7BB-CE2B82F28B74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Команда включить автоматическое регулирование:
+запись 1 в регистр.</t>
         </r>
       </text>
     </comment>
@@ -187,85 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{E4D68468-36B9-46FF-8C07-EDD174D492DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Текущий диаметр изделия
-тип - float
-размерность - мм</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{D85C0962-8089-463F-AD76-3A85B6ECE53F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Скорость линии
-тип - float
-размерность - м/мин</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{14E8EE1C-16E5-4C25-8F84-50E6A38E7C46}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Частота в ращения шнека
-тип - float
-размерность - об/мин</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{38B3F926-2C15-4244-81DD-0231807F1700}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{38B3F926-2C15-4244-81DD-0231807F1700}">
       <text>
         <r>
           <rPr>
@@ -291,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{C7F9F81D-B710-4437-BE30-B9E99BAD9D9A}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{C7F9F81D-B710-4437-BE30-B9E99BAD9D9A}">
       <text>
         <r>
           <rPr>
@@ -316,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{10B45C1E-3FDF-4969-BAD5-BBF419D3023E}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{10B45C1E-3FDF-4969-BAD5-BBF419D3023E}">
       <text>
         <r>
           <rPr>
@@ -341,32 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{ADCF8CB1-6F95-4DB4-B149-17319AB2B2C7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Redwill1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Сигнал рассогласования регулятора
-тип - float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{CEB67269-3E1F-4C16-A574-6AB22D948B67}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{CEB67269-3E1F-4C16-A574-6AB22D948B67}">
       <text>
         <r>
           <rPr>
@@ -393,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{1DFD437D-2EBC-4580-9EDB-EC5DFF5C747F}">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{1DFD437D-2EBC-4580-9EDB-EC5DFF5C747F}">
       <text>
         <r>
           <rPr>
@@ -420,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4376E02C-136A-45CE-B146-E67BCCC14EB5}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{4376E02C-136A-45CE-B146-E67BCCC14EB5}">
       <text>
         <r>
           <rPr>
@@ -448,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{255F9173-A1B0-43B7-B26F-2F6CADC5D396}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255F9173-A1B0-43B7-B26F-2F6CADC5D396}">
       <text>
         <r>
           <rPr>
@@ -476,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{C96A3772-CD8A-4137-9987-ADA0067E4124}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{C96A3772-CD8A-4137-9987-ADA0067E4124}">
       <text>
         <r>
           <rPr>
@@ -503,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{2B34D7DF-384E-4610-87B7-D893CC97BC72}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{2B34D7DF-384E-4610-87B7-D893CC97BC72}">
       <text>
         <r>
           <rPr>
@@ -530,7 +457,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{EB8CDBEC-0510-4D3D-A44C-3C81FC25B72C}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{7D7CD766-5069-4900-BBA4-4AB30EBE3B76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сигнал рассогласования регулятора
+тип - float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{EB8CDBEC-0510-4D3D-A44C-3C81FC25B72C}">
       <text>
         <r>
           <rPr>
@@ -557,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{A3086681-9CC5-4DA3-8ED6-83FF5B7937A7}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{A3086681-9CC5-4DA3-8ED6-83FF5B7937A7}">
       <text>
         <r>
           <rPr>
@@ -584,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{6CBA55FE-0F63-435C-941F-C837D652231B}">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{6CBA55FE-0F63-435C-941F-C837D652231B}">
       <text>
         <r>
           <rPr>
@@ -611,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{29580E6F-10A1-4B5D-82CA-7BB5A69DB4F3}">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{29580E6F-10A1-4B5D-82CA-7BB5A69DB4F3}">
       <text>
         <r>
           <rPr>
@@ -972,7 +924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>A</t>
   </si>
@@ -1076,9 +1028,6 @@
     <t xml:space="preserve"> задать Z (Размер зуба)</t>
   </si>
   <si>
-    <t>Dcur</t>
-  </si>
-  <si>
     <t>Dust</t>
   </si>
   <si>
@@ -1088,15 +1037,6 @@
     <t>freq</t>
   </si>
   <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>EncoderErr</t>
-  </si>
-  <si>
     <t>OnMotor</t>
   </si>
   <si>
@@ -1140,13 +1080,61 @@
   </si>
   <si>
     <t>Dmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni </t>
+  </si>
+  <si>
+    <t>LDM_DEVICE_MODEL</t>
+  </si>
+  <si>
+    <t>LDM_NetworkAddr</t>
+  </si>
+  <si>
+    <t>LDM_Calc_mode</t>
+  </si>
+  <si>
+    <t>LDM_diam_sr_cur</t>
+  </si>
+  <si>
+    <t>LDM_diam_d1_cur</t>
+  </si>
+  <si>
+    <t>LDM_diam_d2_cur</t>
+  </si>
+  <si>
+    <t>LDM_UsredCounter</t>
+  </si>
+  <si>
+    <t>Ex01_Disp</t>
+  </si>
+  <si>
+    <t>Ex02_Disp</t>
+  </si>
+  <si>
+    <t>параметры ПЧ1</t>
+  </si>
+  <si>
+    <t>параметры ПЧ2</t>
+  </si>
+  <si>
+    <t>Связь ПЧ</t>
+  </si>
+  <si>
+    <t>Связь LDM</t>
+  </si>
+  <si>
+    <t>treshold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1188,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1221,7 +1216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1475,11 +1470,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1533,40 +1615,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1578,7 +1645,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1864,13 +1982,21 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
+      <selection activeCell="P13" sqref="P13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="18" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1930,25 +2056,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1960,90 +2092,96 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="34" t="s">
+      <c r="B3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="29" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="29" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="25"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="31"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2053,43 +2191,59 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="31"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="23"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="7"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="31"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2098,7 +2252,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="31"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2120,7 +2274,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="31"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2142,7 +2296,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="31"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2164,7 +2318,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="31"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -2186,199 +2340,241 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="31"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27" t="s">
+      <c r="B13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="27" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="27" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="32"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="27"/>
     </row>
     <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="32"/>
+      <c r="B15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="27"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="27"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="28"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="28"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:E4"/>
+  <mergeCells count="43">
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="R3:R11"/>
     <mergeCell ref="R12:R16"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/SRU/Регистры.xlsx
+++ b/SRU/Регистры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redwill1\YandexDisk\REDWILL\Ruslan\weintek\SRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCF6F2-5C81-4845-BAF2-49D3743AE238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82196195-B3E6-442B-9A9B-AF219B44C48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>A</t>
   </si>
@@ -1128,6 +1128,15 @@
   </si>
   <si>
     <t>treshold</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set emergency </t>
+  </si>
+  <si>
+    <t>clear emergency</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,6 +1224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1561,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1615,25 +1630,70 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1645,58 +1705,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1982,7 +2003,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:Q13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2014,8 @@
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="16.140625" customWidth="1"/>
     <col min="15" max="15" width="17.140625" customWidth="1"/>
     <col min="16" max="18" width="14.7109375" customWidth="1"/>
@@ -2061,10 +2083,10 @@
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="24" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2079,8 +2101,12 @@
       <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="J2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -2092,39 +2118,39 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="34"/>
+      <c r="P3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="34"/>
+      <c r="R3" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2132,39 +2158,39 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="25"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="26"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -2192,45 +2218,49 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="26"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="26"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -2252,7 +2282,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="26"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2274,7 +2304,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="26"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2296,7 +2326,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="26"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2318,7 +2348,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="26"/>
+      <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -2340,7 +2370,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="26"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2362,15 +2392,19 @@
       <c r="I12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="J12" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2378,184 +2412,166 @@
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="24" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="35"/>
+      <c r="N13" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="24" t="s">
+      <c r="O13" s="35"/>
+      <c r="P13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="27"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="24" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="27"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="27"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="42" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="38" t="s">
+      <c r="M16" s="40"/>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="Q16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="27"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="43"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="43"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="43"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="43"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="43"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D14:E14"/>
+  <mergeCells count="42">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="R3:R11"/>
     <mergeCell ref="R12:R16"/>
     <mergeCell ref="A26:A31"/>
@@ -2572,9 +2588,30 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/SRU/Регистры.xlsx
+++ b/SRU/Регистры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redwill1\YandexDisk\REDWILL\Ruslan\weintek\SRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82196195-B3E6-442B-9A9B-AF219B44C48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF2918F-DAEA-44CC-87AE-EA5E63CEC694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1648,52 +1648,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1708,16 +1678,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2118,39 +2118,39 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="33" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="41" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2158,39 +2158,39 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="34"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -2218,40 +2218,40 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="33" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="27" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="7" t="s">
@@ -2260,7 +2260,7 @@
       <c r="Q6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="41"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -2282,7 +2282,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="41"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2304,7 +2304,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="41"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2326,7 +2326,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="41"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2348,7 +2348,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="41"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -2370,7 +2370,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="41"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2392,10 +2392,10 @@
       <c r="I12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="26" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="15"/>
@@ -2404,7 +2404,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="42" t="s">
+      <c r="R12" s="32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2415,36 +2415,36 @@
       <c r="B13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="35"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2453,32 +2453,32 @@
       <c r="B14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="42"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -2506,36 +2506,36 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="23"/>
-      <c r="R15" s="42"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="40"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="22">
         <v>0</v>
       </c>
@@ -2548,28 +2548,54 @@
       <c r="Q16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="42"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="33"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="33"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="33"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="33"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="R3:R11"/>
@@ -2586,32 +2612,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
